--- a/2324MScCW2DataBelfast centre.xlsx
+++ b/2324MScCW2DataBelfast centre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18519\Desktop\ELE8096-CW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981FED85-6564-41E0-A87F-698139E0AD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8413831-4997-412D-A403-DEC99AAA64A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:V453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
